--- a/data/trans_orig/P27F_6-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P27F_6-Estudios-trans_orig.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mz1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M5" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mz1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mz2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -543,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según recibimiento de atención fisioterapéutica cuando se necesitaba en Mz1 (tasa de respuesta: 99,9%)</t>
+          <t>Población según recibimiento de atención fisioterapéutica cuando se necesitaba en M5 (tasa de respuesta: 99,8%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -733,6 +735,7306 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>352429</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>315352</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>387064</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>79,46%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>71,1%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>87,27%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>445067</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>392342</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>492449</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>70,07%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>61,77%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>77,53%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>797496</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>737530</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>861917</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>73,93%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>68,37%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>79,9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>43161</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>22095</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>73379</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9,73%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16,54%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>135788</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>98115</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>180919</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>21,38%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>15,45%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>28,48%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>178949</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>129696</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>231990</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>16,59%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>12,02%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>21,51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>20631</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6593</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>45909</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4,65%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1,49%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10,35%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>28940</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>12712</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>67084</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>10,56%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>49571</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>26004</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>87656</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>4,6%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>8,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>27303</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12365</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>53484</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6,16%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2,79%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12,06%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>25386</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>11304</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>50057</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>7,88%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>52689</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>30697</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>86669</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>4,88%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>2,85%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>443525</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>443525</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>443525</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>635180</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>635180</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>635180</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1078705</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1078705</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1078705</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>868008</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>817865</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>916551</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>81,51%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>76,8%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>86,07%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>809121</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>758544</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>853432</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>74,98%</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>70,3%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>79,09%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1677130</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1607158</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>1746109</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>78,22%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>74,96%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>81,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>158314</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>113933</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>206020</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14,87%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10,7%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19,35%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>171235</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>134562</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>217825</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15,87%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>12,47%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>20,19%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>329550</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>275677</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>394532</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>15,37%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>12,86%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>18,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>28727</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13857</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>52275</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,7%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,91%</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>45885</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>27682</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>73007</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4,25%</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>6,77%</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>74613</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>48714</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>109687</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>5,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9885</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2489</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>24738</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>52840</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>31546</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>79395</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4,9%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2,92%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>7,36%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>62725</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>41143</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>96460</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>1,92%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>4,5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1064934</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1064934</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1064934</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1079082</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1079082</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1079082</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2144017</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>2144017</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>2144017</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>599850</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>550862</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>642422</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>72,4%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>66,49%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>77,54%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>630308</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>580479</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>667024</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>71,07%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>65,45%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>75,21%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1230157</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>1169097</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>1289495</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>71,71%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>68,15%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>75,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>168362</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>129977</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>211439</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>20,32%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>15,69%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>25,52%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>190772</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>154558</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>234978</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>21,51%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>17,43%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>26,49%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>359134</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>305928</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>416857</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>20,94%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>24,3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>45241</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>26888</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>71048</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5,46%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3,25%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>8,58%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>47323</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>30831</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>73108</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5,34%</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>92563</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>64801</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>126160</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>3,78%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>15044</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4776</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>36409</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4,39%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>18515</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>8995</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>35277</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>3,98%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>33559</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>18185</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>56280</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>3,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>828496</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>828496</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>828496</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>886918</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>886918</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>886918</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>1715414</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>1715414</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>1715414</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>860323</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>810909</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>914394</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>78,55%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>74,04%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>83,49%</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>692515</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>631466</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>741669</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>70,64%</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>64,41%</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>75,65%</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1552838</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>1481539</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>1623071</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>74,81%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>71,38%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>78,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>164833</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>121143</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>207359</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>15,05%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>18,93%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>211108</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>166992</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>261173</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>21,53%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>17,03%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>26,64%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>375941</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>317440</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>438073</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>18,11%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>15,29%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>21,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>33373</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>17131</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>63163</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1,56%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>52236</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>32897</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>85710</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>5,33%</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>8,74%</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>85609</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>59537</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>129215</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>4,12%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>36685</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>16584</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>65479</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>5,98%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>24508</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>12192</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>43790</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>61193</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>38927</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>96745</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>4,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1095214</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1095214</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1095214</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>980367</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>980367</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>980367</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>2075581</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>2075581</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>2075581</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>2680610</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2579471</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>2767168</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>78,1%</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>75,16%</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>80,62%</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>2577012</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>2482309</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>2670662</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>71,95%</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>69,31%</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>74,57%</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>1679</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>5257621</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>5125732</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>5393788</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>74,96%</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>73,08%</t>
+        </is>
+      </c>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
+          <t>76,9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>534670</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>458011</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>624485</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>15,58%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>13,34%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>18,2%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>708903</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>633213</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>800483</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>19,79%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>17,68%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>22,35%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>1243574</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>1133460</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>1355431</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>17,73%</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>16,16%</t>
+        </is>
+      </c>
+      <c r="W30" s="2" t="inlineStr">
+        <is>
+          <t>19,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>127971</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>89318</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>170696</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>4,97%</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>174384</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>132421</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>222000</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>3,7%</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>302355</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>238594</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>368419</t>
+        </is>
+      </c>
+      <c r="U31" s="2" t="inlineStr">
+        <is>
+          <t>4,31%</t>
+        </is>
+      </c>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>3,4%</t>
+        </is>
+      </c>
+      <c r="W31" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>88918</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>59316</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>127165</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>121249</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>89989</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>157595</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>210167</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>163671</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>267403</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>3,81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>3432169</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>3432169</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>3432169</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>1267</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>3581548</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>3581548</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>3581548</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>2303</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>7013717</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>7013717</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr">
+        <is>
+          <t>7013717</t>
+        </is>
+      </c>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población según recibimiento de atención fisioterapéutica cuando se necesitaba en Mz1 (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U31" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W31" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W33" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población según recibimiento de atención fisioterapéutica cuando se necesitaba en Mz2 (tasa de respuesta: 99,64%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
